--- a/analysis/Analysis functions/Variables.xlsx
+++ b/analysis/Analysis functions/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanez\Documents\GitHub\gestantesVIH\analysis\Analysis functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703713C7-12D3-459E-936D-20420FF2DEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452243F-76A4-4727-8EF2-BAF68286E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10656" yWindow="240" windowWidth="11496" windowHeight="11724" activeTab="1" xr2:uid="{FAABDC3D-7437-49CD-A028-AA6EE71D0917}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FAABDC3D-7437-49CD-A028-AA6EE71D0917}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="118">
   <si>
     <t xml:space="preserve"> $ LAST_BIRTH                                : chr  "LESS THAN 12 MONTHS" "LESS THAN 12 MONTHS" "LESS THAN 12 MONTHS" "LESS THAN 12 MONTHS" ...</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>level3</t>
+  </si>
+  <si>
+    <t>VARIABLES</t>
+  </si>
+  <si>
+    <t>CATEGORIAS</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -444,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -453,6 +465,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1735,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A7C33B-3E50-4DA6-964B-892A1EF6B505}">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,194 +1760,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>95</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
@@ -1951,18 +1955,24 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
@@ -1972,137 +1982,148 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
     </row>

--- a/analysis/Analysis functions/Variables.xlsx
+++ b/analysis/Analysis functions/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanez\Documents\GitHub\gestantesVIH\analysis\Analysis functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452243F-76A4-4727-8EF2-BAF68286E349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26588D2C-A167-486F-9550-8A61B9CBBD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FAABDC3D-7437-49CD-A028-AA6EE71D0917}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -466,6 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,7 +1752,7 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1791,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1802,24 +1803,24 @@
       <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F5" t="s">
@@ -1847,7 +1848,7 @@
       <c r="D7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
